--- a/기획 자료/게임 데이터 테이블.xlsx
+++ b/기획 자료/게임 데이터 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\프로젝트\MyProject\기획 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19789AB-A8D2-48A0-9559-0EF96935E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E617C06-267C-4186-9D50-B99AE25B70B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{227BD8C5-A8D9-4042-A845-B3500EA4711E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{227BD8C5-A8D9-4042-A845-B3500EA4711E}"/>
   </bookViews>
   <sheets>
     <sheet name="예시" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
   <si>
     <t>스텟아이디</t>
   </si>
@@ -1614,6 +1614,22 @@
     <t>번개속성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Freeze</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2168,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3806392-E7F7-4962-ABF9-C39E0EF43517}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -31559,8 +31575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6DA8BC-6FEB-4715-A0AA-A5F889BEFC47}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -31872,8 +31888,12 @@
       <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
@@ -31885,8 +31905,12 @@
       <c r="C20" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">

--- a/기획 자료/게임 데이터 테이블.xlsx
+++ b/기획 자료/게임 데이터 테이블.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\프로젝트\MyProject\기획 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E617C06-267C-4186-9D50-B99AE25B70B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EC192-A1BA-4B12-88D1-D1E5DDA54D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{227BD8C5-A8D9-4042-A845-B3500EA4711E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{227BD8C5-A8D9-4042-A845-B3500EA4711E}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{ACE7B591-94BA-45BE-9799-6FD8D479DDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="예시" sheetId="1" r:id="rId1"/>
     <sheet name="카드 데이터 테이블" sheetId="2" r:id="rId2"/>
-    <sheet name="enumName" sheetId="4" r:id="rId3"/>
-    <sheet name="메모" sheetId="3" r:id="rId4"/>
+    <sheet name="메모" sheetId="3" r:id="rId3"/>
+    <sheet name="enumName" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'카드 데이터 테이블'!$A$1:$N$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'카드 데이터 테이블'!$A$1:$O$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -232,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{D260E3D0-10AD-4E3A-B6EF-F2A1A0418147}">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{D260E3D0-10AD-4E3A-B6EF-F2A1A0418147}">
       <text>
         <r>
           <rPr>
@@ -324,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{32A30ABA-84BF-4D25-9033-C0406A09320B}">
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{32A30ABA-84BF-4D25-9033-C0406A09320B}">
       <text>
         <r>
           <rPr>
@@ -460,7 +461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="261">
   <si>
     <t>스텟아이디</t>
   </si>
@@ -1527,26 +1528,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CloseAttack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LineAttack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConeAttack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CircleAttack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileAttack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>투사체 공격</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1628,6 +1609,94 @@
   </si>
   <si>
     <t>기절</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도트데미지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoneTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 종류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해 감소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 재생 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시 효과</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔화</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2187,6 +2256,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -30344,11 +30414,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D406AB-7074-41AD-9C2B-394F488E5C20}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -30363,11 +30434,12 @@
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.5" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -30405,13 +30477,16 @@
         <v>63</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -30449,13 +30524,16 @@
         <v>49</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -30495,11 +30573,14 @@
       <c r="M3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -30518,20 +30599,34 @@
       <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10">
         <v>39</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="9" t="s">
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f>enumName!$C$23</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -30550,20 +30645,30 @@
       <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10">
         <v>15</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="11">
+        <f>enumName!$C$20</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="9" t="s">
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>2</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -30582,20 +30687,32 @@
       <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4</v>
+      </c>
       <c r="I6" s="10">
         <v>10</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="11">
+        <f>enumName!$C$20</f>
+        <v>0</v>
+      </c>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -30614,20 +30731,30 @@
       <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11">
+        <v>3</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10">
         <v>23</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="11">
+        <f>enumName!$C$20</f>
+        <v>0</v>
+      </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>2</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -30652,14 +30779,22 @@
         <v>22</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="11">
+        <f>enumName!$C$20</f>
+        <v>0</v>
+      </c>
       <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>2</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -30684,14 +30819,22 @@
         <v>28</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="11">
+        <f>enumName!$C$24</f>
+        <v>4</v>
+      </c>
       <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="9" t="s">
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -30718,12 +30861,17 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9" t="s">
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>2</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -30750,12 +30898,17 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="9" t="s">
+      <c r="M11" s="11">
+        <v>3</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -30782,12 +30935,17 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9" t="s">
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>2</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -30814,12 +30972,17 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="9" t="s">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>2</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -30846,12 +31009,17 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="9" t="s">
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -30878,12 +31046,17 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="9" t="s">
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>2</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -30910,12 +31083,17 @@
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="9" t="s">
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -30942,12 +31120,17 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="9" t="s">
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>2</v>
+      </c>
+      <c r="O17" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -30974,12 +31157,17 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="9" t="s">
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>2</v>
+      </c>
+      <c r="O18" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -31006,12 +31194,17 @@
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="9" t="s">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>2</v>
+      </c>
+      <c r="O19" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -31038,12 +31231,17 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="9" t="s">
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -31070,12 +31268,17 @@
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="9" t="s">
+      <c r="M21" s="11">
+        <v>2</v>
+      </c>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -31102,12 +31305,17 @@
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="9" t="s">
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>2</v>
+      </c>
+      <c r="O22" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -31134,12 +31342,17 @@
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="9" t="s">
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>2</v>
+      </c>
+      <c r="O23" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -31166,12 +31379,17 @@
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="9" t="s">
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>2</v>
+      </c>
+      <c r="O24" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -31198,12 +31416,17 @@
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="9" t="s">
+      <c r="M25" s="11">
+        <v>4</v>
+      </c>
+      <c r="N25" s="11">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -31230,12 +31453,17 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="9" t="s">
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>2</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -31262,12 +31490,17 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="9" t="s">
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>2</v>
+      </c>
+      <c r="O27" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -31294,12 +31527,17 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="9" t="s">
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>2</v>
+      </c>
+      <c r="O28" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -31317,9 +31555,10 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="N29" s="11"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -31337,9 +31576,10 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="N30" s="11"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -31357,9 +31597,10 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="N31" s="11"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -31377,9 +31618,10 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="N32" s="11"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -31397,9 +31639,10 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="N33" s="11"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -31417,9 +31660,10 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="N34" s="11"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -31437,9 +31681,10 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="N35" s="11"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -31457,9 +31702,10 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="N36" s="11"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -31477,9 +31723,10 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="N37" s="11"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -31497,9 +31744,10 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="N38" s="11"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -31517,9 +31765,10 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="N39" s="11"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -31537,9 +31786,10 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="N40" s="11"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -31557,9 +31807,10 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="N41" s="11"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -31572,11 +31823,274 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC5A830-3820-48ED-BCAE-47817E5FB171}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="49.5">
+      <c r="A4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45.75">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.75">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33">
+      <c r="A8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="82.5">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="49.5">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="49.5">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5">
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="49.5">
+      <c r="A16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="66">
+      <c r="A17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6DA8BC-6FEB-4715-A0AA-A5F889BEFC47}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="1">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -31616,7 +32130,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>40</v>
@@ -31628,12 +32142,12 @@
         <v>212</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>40</v>
@@ -31645,12 +32159,12 @@
         <v>205</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>40</v>
@@ -31662,12 +32176,12 @@
         <v>206</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>40</v>
@@ -31679,12 +32193,12 @@
         <v>207</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>40</v>
@@ -31696,12 +32210,12 @@
         <v>209</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>40</v>
@@ -31713,7 +32227,7 @@
         <v>208</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -31727,10 +32241,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -31744,10 +32258,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -31761,10 +32275,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -31778,10 +32292,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -31795,10 +32309,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -31832,16 +32346,16 @@
         <v>66</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="C16" s="10">
         <v>0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -31855,10 +32369,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -31872,27 +32386,27 @@
         <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -31903,13 +32417,13 @@
         <v>51</v>
       </c>
       <c r="C20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -31920,10 +32434,14 @@
         <v>51</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
@@ -31933,10 +32451,14 @@
         <v>51</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
@@ -31946,10 +32468,14 @@
         <v>51</v>
       </c>
       <c r="C23" s="10">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
@@ -31959,10 +32485,14 @@
         <v>51</v>
       </c>
       <c r="C24" s="10">
-        <v>5</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
@@ -31972,7 +32502,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12"/>
@@ -31985,10 +32515,104 @@
         <v>51</v>
       </c>
       <c r="C26" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31997,263 +32621,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC5A830-3820-48ED-BCAE-47817E5FB171}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="33">
-      <c r="A1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33">
-      <c r="A2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="49.5">
-      <c r="A4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45.75">
-      <c r="A5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45.75">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33">
-      <c r="A8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66">
-      <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="33">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="82.5">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="49.5">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="49.5">
-      <c r="A13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="49.5">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66">
-      <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="49.5">
-      <c r="A16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="66">
-      <c r="A17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/기획 자료/게임 데이터 테이블.xlsx
+++ b/기획 자료/게임 데이터 테이블.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\프로젝트\MyProject\기획 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EC192-A1BA-4B12-88D1-D1E5DDA54D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F21204B-513C-4938-9687-CCEB40C69337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{227BD8C5-A8D9-4042-A845-B3500EA4711E}"/>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{ACE7B591-94BA-45BE-9799-6FD8D479DDB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{227BD8C5-A8D9-4042-A845-B3500EA4711E}"/>
   </bookViews>
   <sheets>
     <sheet name="예시" sheetId="1" r:id="rId1"/>
     <sheet name="카드 데이터 테이블" sheetId="2" r:id="rId2"/>
-    <sheet name="메모" sheetId="3" r:id="rId3"/>
-    <sheet name="enumName" sheetId="4" r:id="rId4"/>
+    <sheet name="enumName" sheetId="4" r:id="rId3"/>
+    <sheet name="메모" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'카드 데이터 테이블'!$A$1:$O$39</definedName>
@@ -2256,7 +2255,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -30416,10 +30414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D406AB-7074-41AD-9C2B-394F488E5C20}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -30610,7 +30607,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="11">
-        <f>enumName!$C$23</f>
+        <f>enumName!$D$23</f>
         <v>3</v>
       </c>
       <c r="L4" s="11">
@@ -30654,7 +30651,7 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11">
-        <f>enumName!$C$20</f>
+        <f>enumName!$D$20</f>
         <v>0</v>
       </c>
       <c r="L5" s="11"/>
@@ -30698,7 +30695,7 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="11">
-        <f>enumName!$C$20</f>
+        <f>enumName!$D$20</f>
         <v>0</v>
       </c>
       <c r="L6" s="11"/>
@@ -30740,7 +30737,7 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11">
-        <f>enumName!$C$20</f>
+        <f>enumName!$D$20</f>
         <v>0</v>
       </c>
       <c r="L7" s="11"/>
@@ -30780,7 +30777,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="11">
-        <f>enumName!$C$20</f>
+        <f>enumName!$D$20</f>
         <v>0</v>
       </c>
       <c r="L8" s="11"/>
@@ -30820,7 +30817,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="11">
-        <f>enumName!$C$24</f>
+        <f>enumName!$D$24</f>
         <v>4</v>
       </c>
       <c r="L9" s="11"/>
@@ -31823,281 +31820,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC5A830-3820-48ED-BCAE-47817E5FB171}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="33">
-      <c r="A1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33">
-      <c r="A2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="49.5">
-      <c r="A4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45.75">
-      <c r="A5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45.75">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33">
-      <c r="A8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66">
-      <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="33">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="82.5">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="49.5">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="49.5">
-      <c r="A13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="49.5">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66">
-      <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="49.5">
-      <c r="A16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="66">
-      <c r="A17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6DA8BC-6FEB-4715-A0AA-A5F889BEFC47}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="1">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="56.875" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
@@ -32119,10 +31854,10 @@
         <v>202</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>210</v>
@@ -32135,11 +31870,11 @@
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="10">
         <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>229</v>
@@ -32152,11 +31887,11 @@
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="10">
         <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>230</v>
@@ -32169,11 +31904,11 @@
       <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="10">
         <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>231</v>
@@ -32186,11 +31921,11 @@
       <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="10">
         <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>232</v>
@@ -32203,11 +31938,11 @@
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="10">
         <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>233</v>
@@ -32220,11 +31955,11 @@
       <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="10">
         <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>234</v>
@@ -32237,11 +31972,11 @@
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="10">
         <v>0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>218</v>
@@ -32254,11 +31989,11 @@
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="10">
         <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>219</v>
@@ -32271,11 +32006,11 @@
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="10">
         <v>2</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>220</v>
@@ -32288,11 +32023,11 @@
       <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="10">
         <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>221</v>
@@ -32305,11 +32040,11 @@
       <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="10">
         <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>222</v>
@@ -32322,10 +32057,10 @@
       <c r="B14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8"/>
+      <c r="D14" s="10">
         <v>5</v>
       </c>
-      <c r="D14" s="8"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5">
@@ -32335,10 +32070,10 @@
       <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8"/>
+      <c r="D15" s="10">
         <v>6</v>
       </c>
-      <c r="D15" s="8"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
@@ -32348,11 +32083,11 @@
       <c r="B16" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="10">
         <v>0</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>245</v>
@@ -32365,11 +32100,11 @@
       <c r="B17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="10">
         <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>226</v>
@@ -32382,11 +32117,11 @@
       <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="10">
         <v>2</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>227</v>
@@ -32399,11 +32134,11 @@
       <c r="B19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="10">
         <v>3</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>228</v>
@@ -32416,11 +32151,11 @@
       <c r="B20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="10">
         <v>0</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>240</v>
@@ -32433,11 +32168,11 @@
       <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="10">
         <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>236</v>
@@ -32450,11 +32185,11 @@
       <c r="B22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="10">
         <v>2</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>238</v>
@@ -32467,11 +32202,11 @@
       <c r="B23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="10">
         <v>3</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>242</v>
@@ -32484,11 +32219,11 @@
       <c r="B24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="10">
         <v>4</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>260</v>
@@ -32501,10 +32236,10 @@
       <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8"/>
+      <c r="D25" s="10">
         <v>5</v>
       </c>
-      <c r="D25" s="8"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
@@ -32514,10 +32249,10 @@
       <c r="B26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8"/>
+      <c r="D26" s="10">
         <v>6</v>
       </c>
-      <c r="D26" s="8"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
@@ -32527,11 +32262,11 @@
       <c r="B27" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="10">
         <v>0</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>240</v>
@@ -32544,11 +32279,11 @@
       <c r="B28" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="10">
         <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>254</v>
@@ -32561,10 +32296,10 @@
       <c r="B29" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8"/>
+      <c r="D29" s="10">
         <v>2</v>
       </c>
-      <c r="D29" s="8"/>
       <c r="E29" s="12" t="s">
         <v>256</v>
       </c>
@@ -32576,11 +32311,11 @@
       <c r="B30" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="10">
         <v>3</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>257</v>
@@ -32593,10 +32328,10 @@
       <c r="B31" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8"/>
+      <c r="D31" s="10">
         <v>4</v>
       </c>
-      <c r="D31" s="8"/>
       <c r="E31" s="12" t="s">
         <v>258</v>
       </c>
@@ -32608,10 +32343,10 @@
       <c r="B32" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8"/>
+      <c r="D32" s="10">
         <v>5</v>
       </c>
-      <c r="D32" s="8"/>
       <c r="E32" s="12"/>
     </row>
   </sheetData>
@@ -32621,4 +32356,264 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC5A830-3820-48ED-BCAE-47817E5FB171}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="49.5">
+      <c r="A4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45.75">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.75">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33">
+      <c r="A8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="82.5">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="49.5">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="49.5">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5">
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="49.5">
+      <c r="A16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="66">
+      <c r="A17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/기획 자료/게임 데이터 테이블.xlsx
+++ b/기획 자료/게임 데이터 테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\프로젝트\MyProject\기획 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SundayClass\MyProject\기획 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F21204B-513C-4938-9687-CCEB40C69337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F3F31-B6A2-4B52-82DD-2F7E1BF6BAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{227BD8C5-A8D9-4042-A845-B3500EA4711E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{227BD8C5-A8D9-4042-A845-B3500EA4711E}"/>
   </bookViews>
   <sheets>
     <sheet name="예시" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
   <si>
     <t>스텟아이디</t>
   </si>
@@ -1698,6 +1698,14 @@
     <t>둔화</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>이펙트 테이블 따로 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)프로젝 타일 이펙트 테이블 따로 작성: 기본 테이블에 연동되는 테이블 명시 후 가져올 필드 명시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -30415,13 +30423,13 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
@@ -31823,8 +31831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6DA8BC-6FEB-4715-A0AA-A5F889BEFC47}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -32360,10 +32368,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC5A830-3820-48ED-BCAE-47817E5FB171}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -32374,7 +32382,7 @@
     <col min="4" max="4" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
@@ -32388,7 +32396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
@@ -32416,7 +32424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5">
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -32430,7 +32438,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45.75">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -32444,7 +32452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.75">
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -32472,7 +32480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33">
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -32486,7 +32494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66">
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -32500,7 +32508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -32514,7 +32522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="82.5">
+    <row r="11" spans="1:4" ht="33">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -32528,7 +32536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="49.5">
+    <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -32542,7 +32550,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="49.5">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -32556,7 +32564,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="49.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -32570,7 +32578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="66">
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -32584,7 +32592,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="49.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>97</v>
       </c>
@@ -32598,7 +32606,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="66">
+    <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
         <v>100</v>
       </c>
@@ -32610,10 +32618,21 @@
       </c>
       <c r="D17" s="6" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>